--- a/data/hotels_by_city/Houston/Houston_shard_144.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_144.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56062-d8796649-Reviews-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Katy-Hotels-Courtyard-Houston-Katy-Mills.h9693860.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,734 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r564895917-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>8796649</t>
+  </si>
+  <si>
+    <t>564895917</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Katy Half Marathon Overnight</t>
+  </si>
+  <si>
+    <t>Stayed at the Courtyard overnight for the Katy Half Marathon.   Very quiet, comfortable, clean and affordable.  Very nice staff, good parking and short distance to the race start/finish.  As a solo female traveler, I felt safe and secure at this hotel.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r556588026-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>556588026</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel located in a traffic maze</t>
+  </si>
+  <si>
+    <t>The hotel itself is fine. Rooms are a bit larger than usual, clean, and quiet.  Free wi-fi. The common areas (lobby, bar) are nicer than most, a bit less of that "business traveller" feel.The usual chain restaurants are within walking distance, and the front desk was helpful in providing a map of them all.But. . . the location is in a maze of circular roads that's very frustrating to navigate (especially at 5am). If there were street signs, I didn't see them, and certainly no obvious directions back to I-10.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r554795447-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>554795447</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>The best service I've ever received</t>
+  </si>
+  <si>
+    <t>I stayed here on a business trip during an ice storm that shut down the entire Houston area. Most businesses were closed, the hotel was full of on-edge, stranded travelers. The staff was amazing, particularly the folks in the Bistro. They opened the restaurant early, stayed overnight and were there again early to accommodate the many stranded guests in every possible way. I can't say enough good things about this team, it was the finest service I have ever experienced from hotel staff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r545643767-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>545643767</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Friendly people, beautiful facility, clean room with interesting and uncluttered architecture. Bistro on site. Easy access but not so close to the freeway there's noise. Quiet. Got a good night's sleep. Will stay again.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r540683298-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>540683298</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Nice place, and nice people, but some issues</t>
+  </si>
+  <si>
+    <t>We were there as part of a block of rooms for a wedding party.  The Hotel is a newer property, on the perimeter of the Katy Mills Mall.  Since we were not there for the Mall, and had no time to shop, that was actually a huge negative for us, because the traffic was terrible just trying to get out of the mall to the nearby wedding venue.  The style of the Hotel is "modern".  Other than the toilet seat which was clearly broken, the room was large and clean.  The bed was very comfortable.  This is NOT a Drury, and there is no free anything here, so just be aware.  Although it did not impact our room directly, the front desk totally screwed up reservations for other people in our group, including the bride and groom, whose suite was apparently given away to someone else.  Upon arrival back at the Hotel following the reception we had to fight to get them into another room at all.  HUGE and unforgivable fail!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Chris C, General Manager at Courtyard Houston Katy Mills, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>We were there as part of a block of rooms for a wedding party.  The Hotel is a newer property, on the perimeter of the Katy Mills Mall.  Since we were not there for the Mall, and had no time to shop, that was actually a huge negative for us, because the traffic was terrible just trying to get out of the mall to the nearby wedding venue.  The style of the Hotel is "modern".  Other than the toilet seat which was clearly broken, the room was large and clean.  The bed was very comfortable.  This is NOT a Drury, and there is no free anything here, so just be aware.  Although it did not impact our room directly, the front desk totally screwed up reservations for other people in our group, including the bride and groom, whose suite was apparently given away to someone else.  Upon arrival back at the Hotel following the reception we had to fight to get them into another room at all.  HUGE and unforgivable fail!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r539851956-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>539851956</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Two night stay near great mall</t>
+  </si>
+  <si>
+    <t>In town for a wedding at Briscoe Manor. We booked this hotel because of its closeness to the venue and it being literally in the parking lot of Katy Mills Mall. We stayed in room 222 with a large king sized bed, spacious walk-in shower,refrigerator, and microwave. The room is very close to the elevator but we didn’t hear it. The housekeeping staff were very loud. The hotel is near Red Lobster, T.G.I Friday’s, Popeyes, Burger King, Panera Bread , and CiCis pizza. We will return soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r532740950-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>532740950</t>
+  </si>
+  <si>
+    <t>10/13/2017</t>
+  </si>
+  <si>
+    <t>I could live here!</t>
+  </si>
+  <si>
+    <t>We came here for a business meeting.  I was so disappointed we could only stay one night!  They have an amazing pool area with two different outdoor gathering areas with fireplaces and a hot tub.  A beautiful sitting area inside with a big screen TV.  But honestly who would want to be in the lobby when the room is amazing!!!  We had a suite and it was huge!  I think I have lived in apartments smaller than this room!  Everything you could need.  microwave, small fridge and a great walk in shower.  The hotel staff is nice and accommodating.  They also have a Bistro in the lobby for Breakfast and Dinner.  We didn't eat there, but it was nice to have the option.  Oh, and free wifi!  I always hate when you stay in a nicer place and they charge you for wifi!  Great location with a lot of things to do nearby.  Like I said, I wish we had more time here....MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We came here for a business meeting.  I was so disappointed we could only stay one night!  They have an amazing pool area with two different outdoor gathering areas with fireplaces and a hot tub.  A beautiful sitting area inside with a big screen TV.  But honestly who would want to be in the lobby when the room is amazing!!!  We had a suite and it was huge!  I think I have lived in apartments smaller than this room!  Everything you could need.  microwave, small fridge and a great walk in shower.  The hotel staff is nice and accommodating.  They also have a Bistro in the lobby for Breakfast and Dinner.  We didn't eat there, but it was nice to have the option.  Oh, and free wifi!  I always hate when you stay in a nicer place and they charge you for wifi!  Great location with a lot of things to do nearby.  Like I said, I wish we had more time here....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r517773201-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>517773201</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>You Can Always Depend on Marriott</t>
+  </si>
+  <si>
+    <t>We had an overnight stay at the Courtyard, Katy Mills.  The location is fantastic and the hotel is lovely! Great rates.  We stayed in a 2 queen suite with sofa.  Very spacious!  The service was great!  Will definitely be staying here more frequently when going to Houston!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r517556684-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>517556684</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The rooms are nice and neat. Plenty of room. Bathrooms were clean.  The Bistro has excellent Food.  Ivory, the chef, takes pride in everything that is made. The outside patio area and pool is perfect for socializing.  If you choose, it's within walking distance to Fudruckers and several other Restaurants. Just a short drive across the parking lot to Katy Mills Mall on the Bass Pro side. Also very close to the nearby waterpark.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r493254717-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>493254717</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t>traveriers, this is an Outstanding Courtyard with great WiFi!</t>
+  </si>
+  <si>
+    <t>traveriers, this is an Outstanding Courtyard with great WiFi! This is a new Courtyard that is in Great shape. Rooms are nice and the bed is very compy! It also has really good WiFi speed. Customer service is great!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r492611355-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>492611355</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Fantastic outdoor seating, pool/spa, in what feels like an upscale hotel!</t>
+  </si>
+  <si>
+    <t>This is a great new hotel in a developing area with a few extra amenities. Centered directly next to Katy Mills Mall, this hotel is close to lots of shopping, dining, and entertainment options including a movie theater and a waterpark! The rooms are great and exactly what you would expect from a new Courtyard by Marriott property, and they do have an exceptional outdoor pool/spa and seating area. The only area for improvement we saw for this property was it seemed like the hotel had alot of wear and tear for such a new hotel. The room we were staying in had alot of marks on the wall, hallway carpet had a few stains, and the outside of the hotel had some water stains from water running down the side of the building. I would highly recommend this property to all!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This is a great new hotel in a developing area with a few extra amenities. Centered directly next to Katy Mills Mall, this hotel is close to lots of shopping, dining, and entertainment options including a movie theater and a waterpark! The rooms are great and exactly what you would expect from a new Courtyard by Marriott property, and they do have an exceptional outdoor pool/spa and seating area. The only area for improvement we saw for this property was it seemed like the hotel had alot of wear and tear for such a new hotel. The room we were staying in had alot of marks on the wall, hallway carpet had a few stains, and the outside of the hotel had some water stains from water running down the side of the building. I would highly recommend this property to all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r480610680-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>480610680</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Beautiful hotel and incredible staff</t>
+  </si>
+  <si>
+    <t>I stayed at the Courtyard by Marriott at Katy Mills.  The hotel is just beautiful.  The room was large and spacious.  The bathroom was twice the size of the one in my townhome.  But I have to say Charlene at the Front Desk is the main reason that I will be back.  She was the perfect combination of professional and friendly.  She greeted me with a warm smile and made me feel right at home.  The check-in process was quick and she engaged me in conversation and made me feel so comfortable.  I hope the management realizes what a gem they have in Charlene.  She definitely made my day!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r472680660-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>472680660</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Favorite hotel in Houston</t>
+  </si>
+  <si>
+    <t>Nice rooms, comfy beds, awesome breakfast. Staff was nice, but a little confused it seems. Lots of things close by to do and places to eat. Felt very safe, it was just a bunch of ladies and little kids and we never felt threatened.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r465318391-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>465318391</t>
+  </si>
+  <si>
+    <t>03/07/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but.......</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard over the weekend for a leisure trip. We go every year while our daughter is at camp and usually stay next door. We thought we would try Courtyard this time. It is a fairly new hotel and was very clean and the staff was friendly. However, BEWARE.. the shower is VERY slippery. The water is very soft there and when you mix that with the soap, my husband fell pretty hard. He hit is head and landed right on his back. It was awful! Our leisure trip of shopping and relaxing was done after that because he did not feel up for any of it. I notified the hotel because I just wanted to let them know they really should invest in 5 dollar shower mats to avoid that. Luckily my husband is nice guy and wasn't going to do anything crazy but you never know who could and you could avoid a lot of problems by adding them in there. When we told the front desk, she offered us breakfast the next day. I mean thanks, I guess. You hit your head and hurt your back, so here is a burrito..... I don't know. We were on a family friend rate so I didn't the night for free, I just wish it would have been more of a priority to fix the matter. She said she would have bath mat delivered right way to...We stayed at the Courtyard over the weekend for a leisure trip. We go every year while our daughter is at camp and usually stay next door. We thought we would try Courtyard this time. It is a fairly new hotel and was very clean and the staff was friendly. However, BEWARE.. the shower is VERY slippery. The water is very soft there and when you mix that with the soap, my husband fell pretty hard. He hit is head and landed right on his back. It was awful! Our leisure trip of shopping and relaxing was done after that because he did not feel up for any of it. I notified the hotel because I just wanted to let them know they really should invest in 5 dollar shower mats to avoid that. Luckily my husband is nice guy and wasn't going to do anything crazy but you never know who could and you could avoid a lot of problems by adding them in there. When we told the front desk, she offered us breakfast the next day. I mean thanks, I guess. You hit your head and hurt your back, so here is a burrito..... I don't know. We were on a family friend rate so I didn't the night for free, I just wish it would have been more of a priority to fix the matter. She said she would have bath mat delivered right way to prevent that for the next day. When we returned to the hotel there was nothing there and they never delivered it or checked on my husband again. I just think it could have been handled a little more professionally, someone really hurt themselves in your hotel and they didn't seem to concerned. Don't get me wrong the lady was nice, it just was awkward and I felt like maybe they didn't believe us or something. I felt really bad for my husband and I hope they invest in some mats and I hope you guys read this and are cautious. She did say they have them on request..........well I feel like they should be mandatory as soft as that water is.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard over the weekend for a leisure trip. We go every year while our daughter is at camp and usually stay next door. We thought we would try Courtyard this time. It is a fairly new hotel and was very clean and the staff was friendly. However, BEWARE.. the shower is VERY slippery. The water is very soft there and when you mix that with the soap, my husband fell pretty hard. He hit is head and landed right on his back. It was awful! Our leisure trip of shopping and relaxing was done after that because he did not feel up for any of it. I notified the hotel because I just wanted to let them know they really should invest in 5 dollar shower mats to avoid that. Luckily my husband is nice guy and wasn't going to do anything crazy but you never know who could and you could avoid a lot of problems by adding them in there. When we told the front desk, she offered us breakfast the next day. I mean thanks, I guess. You hit your head and hurt your back, so here is a burrito..... I don't know. We were on a family friend rate so I didn't the night for free, I just wish it would have been more of a priority to fix the matter. She said she would have bath mat delivered right way to...We stayed at the Courtyard over the weekend for a leisure trip. We go every year while our daughter is at camp and usually stay next door. We thought we would try Courtyard this time. It is a fairly new hotel and was very clean and the staff was friendly. However, BEWARE.. the shower is VERY slippery. The water is very soft there and when you mix that with the soap, my husband fell pretty hard. He hit is head and landed right on his back. It was awful! Our leisure trip of shopping and relaxing was done after that because he did not feel up for any of it. I notified the hotel because I just wanted to let them know they really should invest in 5 dollar shower mats to avoid that. Luckily my husband is nice guy and wasn't going to do anything crazy but you never know who could and you could avoid a lot of problems by adding them in there. When we told the front desk, she offered us breakfast the next day. I mean thanks, I guess. You hit your head and hurt your back, so here is a burrito..... I don't know. We were on a family friend rate so I didn't the night for free, I just wish it would have been more of a priority to fix the matter. She said she would have bath mat delivered right way to prevent that for the next day. When we returned to the hotel there was nothing there and they never delivered it or checked on my husband again. I just think it could have been handled a little more professionally, someone really hurt themselves in your hotel and they didn't seem to concerned. Don't get me wrong the lady was nice, it just was awkward and I felt like maybe they didn't believe us or something. I felt really bad for my husband and I hope they invest in some mats and I hope you guys read this and are cautious. She did say they have them on request..........well I feel like they should be mandatory as soft as that water is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r464035224-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>464035224</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>Great Attitude, very nice Courtyard</t>
+  </si>
+  <si>
+    <t>This is my 2nd time at this Courtyard and both have been excellent. Check in team is efficient. Rooms very nice, great patio with lots of room. Awesome Bistro staff... Big man, Ivory is a character. Guided us to local Italian food venue that was great. Invited us to "in house" Fat Tuesday Cajun feast...It's teams like this one that make biz travel much better. There are lots of choices at Katy Mills for hotels. Chose this one if you can.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r451244967-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>451244967</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Great experience.  Great Staff!</t>
+  </si>
+  <si>
+    <t>As a road warrior it's hard to find a great experience in our stay.  Last minute---my business partner and I found ourselves stuck in Katy for the night--- so glad it worked out that way after stumbling on this gem.   They quickly arranged for room.  Front desk check-in was smooth.  Rooms were thoughtfully appointed.  Comfy pillows and sheets are a major bonus.   (bed a bit stiff for my taste).  The menu was off the charts-- avocado toast with arugula-- so many amazing choices i wanted to stay all day...   The lobby was very well thought out as we parked ourselves in the cozy booth with outlets, round table and even a small tv in front of us.   AMAZING!   The best of all was La Lana!   SHE WAS THE BEST!!!!!!! PAY THAT WOMAN.  We are coming back!(small request to have bottled water in the room upon arrival-- This is huge for road warriors)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>As a road warrior it's hard to find a great experience in our stay.  Last minute---my business partner and I found ourselves stuck in Katy for the night--- so glad it worked out that way after stumbling on this gem.   They quickly arranged for room.  Front desk check-in was smooth.  Rooms were thoughtfully appointed.  Comfy pillows and sheets are a major bonus.   (bed a bit stiff for my taste).  The menu was off the charts-- avocado toast with arugula-- so many amazing choices i wanted to stay all day...   The lobby was very well thought out as we parked ourselves in the cozy booth with outlets, round table and even a small tv in front of us.   AMAZING!   The best of all was La Lana!   SHE WAS THE BEST!!!!!!! PAY THAT WOMAN.  We are coming back!(small request to have bottled water in the room upon arrival-- This is huge for road warriors)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r448202778-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>448202778</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>New property, amazing staff, sophisticated room</t>
+  </si>
+  <si>
+    <t>Chris, front desk agent (NOT the GM) was very nice at check-in, and all other interactions with hotel staff (front, bistro, and even housekeeping) was great. They were very friendly and helpful. The lobby and room were very modern. I was so impressed because there were like 10 USB charging spots in the room!</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r441981633-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>441981633</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Excellent location.</t>
+  </si>
+  <si>
+    <t>I am in Katy at least 3 times a year and this is now my go to place to stay near my customer. The property is modern and updated. The staff friendly and helpful. There are plenty of places to eat nearby or you can have a drink and eat at the Bistro in the lobby.The rooms are comfortable and spacious. I have already booked another reservation at this property for January. looking forward to it.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r422977085-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>422977085</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>First Time every where they saved me money</t>
+  </si>
+  <si>
+    <t>We stay at this hotel this last weekend and I will strongly recommend this hotel.  When we checked in, they asked me if I wanted a better rate for the same room I reserved.  I was shocked, this is the first time I have stayed at the hotel where they actually saved me $40. The hotel was very clean, nice and the rooms were quite and comfortable.  It is across the parking lot from Katy Mills, close to the local restaurants and I recommend this hotel. I know we will stay there again on the next trip to Katy Mills.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r417912680-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>417912680</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Amazing room</t>
+  </si>
+  <si>
+    <t>We loved our room so much we did not want to leave, completely redone, up-to-date, very comfortable an bed was delicious. Very large modern shower. Very happy that we chose to stop on our road trip cross-country at this beautiful Courtyard</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r415494517-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>415494517</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>great bargain</t>
+  </si>
+  <si>
+    <t>caught a great rate on expedia and this was a very good hotel. The only negative is to beware of the soap on the bathroom floor as it became very slick!! and had a slight slip but caught myself.Bed was great, and it had all of the amenities that you would expect from an upper mid range hotel. The only negative was that there is breakfast, but you have to pay for it and we really didn't want to pay $$ for just a muffin, so we went around a corner and had breakfast each morning at Denny's. If Starbucks is for you,  then this is your place... just not us in the food department.MoreShow less</t>
+  </si>
+  <si>
+    <t>caught a great rate on expedia and this was a very good hotel. The only negative is to beware of the soap on the bathroom floor as it became very slick!! and had a slight slip but caught myself.Bed was great, and it had all of the amenities that you would expect from an upper mid range hotel. The only negative was that there is breakfast, but you have to pay for it and we really didn't want to pay $$ for just a muffin, so we went around a corner and had breakfast each morning at Denny's. If Starbucks is for you,  then this is your place... just not us in the food department.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r397070363-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>397070363</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marvelous  staff </t>
+  </si>
+  <si>
+    <t>We chose this hotel only because our original hotel was booked. We had to get a room after my sons surgery this last Friday went way longer than we had expected. They did a great job accommodating my family of 5 at the last minute. We arrived after 10:30 and they were a VERY FRIENDLY STAFF. The bistro even stayed open later with open arms to let us have a relaxing drink after our stressful day. They were amazingly nice to my children that were hungry and they just helped them get what they wanted. I Very clean as well. Every aspect of this hotel was great. Thank you for the stay!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We chose this hotel only because our original hotel was booked. We had to get a room after my sons surgery this last Friday went way longer than we had expected. They did a great job accommodating my family of 5 at the last minute. We arrived after 10:30 and they were a VERY FRIENDLY STAFF. The bistro even stayed open later with open arms to let us have a relaxing drink after our stressful day. They were amazingly nice to my children that were hungry and they just helped them get what they wanted. I Very clean as well. Every aspect of this hotel was great. Thank you for the stay!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r396341469-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>396341469</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>loved it !</t>
+  </si>
+  <si>
+    <t>We stayed two nights. It was modern design.... Rich in texture, relaxing in color. It was clean and smelled nice. The pool had a walk in ramp, I have a injured knee so I loved that. The breakfast was not free. We were in a hurry so ate at the hotel the first day, it was good. I asked staff about restaurants, shopping, local attractions. The staff was accommodating, friendly and helpful.  On the negative side...We did not like the pillows. The pillows were fluffy but went flat. We did not ask for anything different so I can't blame them. Remember to Bring your own water or drinks for your fridge of course. Walmart is not that far way. AMC theater and mall is really close. The Water Park and Altitude are both close for the kiddos . The A/C worked very well which was a blessing. My husband and I would defiantly stay here again. He might bring his own pillow .MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed two nights. It was modern design.... Rich in texture, relaxing in color. It was clean and smelled nice. The pool had a walk in ramp, I have a injured knee so I loved that. The breakfast was not free. We were in a hurry so ate at the hotel the first day, it was good. I asked staff about restaurants, shopping, local attractions. The staff was accommodating, friendly and helpful.  On the negative side...We did not like the pillows. The pillows were fluffy but went flat. We did not ask for anything different so I can't blame them. Remember to Bring your own water or drinks for your fridge of course. Walmart is not that far way. AMC theater and mall is really close. The Water Park and Altitude are both close for the kiddos . The A/C worked very well which was a blessing. My husband and I would defiantly stay here again. He might bring his own pillow .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r393378635-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>393378635</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had a wonderful one night stay at this hotel. Rooms are very clean and modern and the bed was very comfortable. The bathroom and shower was very spacious. Also, the breakfast in the lobby bistro was very good as was the service. I would stay here again! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r381056728-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>381056728</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>Wedding Weekend</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard after attending a wedding at Agave Real.  I've always been a big fan of the Courtyard chain since the 90's when I did a lot of business travel.  I always found Courtyard to have a consistent offering across cities that was clean and secure with good customer service.  This location lived up to my expectations.  The front desk clerk was very friendly and helpful when we checked in.  The room was clean and the bed was comfortable.  It met all of our needs for a place to stay the night and I felt we got good value for the price.  Definitely a good location to consider for anyone attending or hosting an event at the Agave Real and/or its sister properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard after attending a wedding at Agave Real.  I've always been a big fan of the Courtyard chain since the 90's when I did a lot of business travel.  I always found Courtyard to have a consistent offering across cities that was clean and secure with good customer service.  This location lived up to my expectations.  The front desk clerk was very friendly and helpful when we checked in.  The room was clean and the bed was comfortable.  It met all of our needs for a place to stay the night and I felt we got good value for the price.  Definitely a good location to consider for anyone attending or hosting an event at the Agave Real and/or its sister properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r378687609-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>378687609</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel.</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay.  It's a little difficult to find, but it was worth it.  Nice community areas and plenty of space to sit &amp; visit with friends.  Room was comfortable and well-appointed.  Especially enjoyed the walk in shower.  Thanks for a great stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r376276842-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>376276842</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Beautiful property</t>
+  </si>
+  <si>
+    <t>The Courtyard is beautiful and clean.The dining area and bar are nice as well.Bartender has a very pleasant demenor.Entire hotel has New Age Contemporary decor. I recommend for business or couples weekend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r368791393-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>368791393</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Unbelievable Marriott Court</t>
+  </si>
+  <si>
+    <t>This Courtyard must be seen to believe how wonderful it is. The beauty of this hotel makes you think you are at a full service resort. I've stayed at many Courtyards but this is at the top of the ladder. The amenities are more than you would expect at a full service. Every associate made you feel like a special guest. My husband and I had an accident during our stay and Bridget was outstanding. She offered to have their shuttle pick us up at the hospital. That is above and beyond her duty. Chris, the general manager, was also very concerned for our well being. He should be very proud of his staff. Kudos to this Courtyard staff. Can't wait to make a return to the Katy Mills Courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>This Courtyard must be seen to believe how wonderful it is. The beauty of this hotel makes you think you are at a full service resort. I've stayed at many Courtyards but this is at the top of the ladder. The amenities are more than you would expect at a full service. Every associate made you feel like a special guest. My husband and I had an accident during our stay and Bridget was outstanding. She offered to have their shuttle pick us up at the hospital. That is above and beyond her duty. Chris, the general manager, was also very concerned for our well being. He should be very proud of his staff. Kudos to this Courtyard staff. Can't wait to make a return to the Katy Mills Courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r365210238-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>365210238</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Close to Katy Mills Mall</t>
+  </si>
+  <si>
+    <t>We were just passing through and did not want to stay in Houston proper.  This hotel is relatively new and everyone was very friendly.  The Katy Mills Mall is within walking distance and there are several places to eat in the vicinity.  The price was very acceptable and the rooms were comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r364580477-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>364580477</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Used this hotel for a 2-day meeting. Hotel is spacious &amp; modern. Staff is extremely friendly and customer focused. All of the meeting attendees were impressed with the hotel and room rates! I will use this Courtyard in the future- it's much nicer than the Springhill Suites Katy Mills, that I've used in the past.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r357455487-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>357455487</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Convenient, New, Friendly and AWESOME</t>
+  </si>
+  <si>
+    <t>Beautiful new facility.  Great gym, walk-in shower, comfy bed, this place is a perfect oasis in the chaos of HoustonFriendly staff who took pride in their service.Free parking.  It was really nice to be able enjoy a hotel stay for a change.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r349713797-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>349713797</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing place rooms are awesome Internet is fast and the lobby was beautiful it's a brand new hotel I'm a rewards member and they treated us great front desk workers we so nice we will stay here again we used to stay at the Hilton Garden Inn but no more the prices were very good beds were very comfortable </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r348516610-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>348516610</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOVED IT !!!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was absolutely wonderful . Beautiful room , comfortable bedding and beds . Guest services were absolutely great .Its located in an perfect area surrounded by restaurants (red lobster, TGIF, Frudruckers ,etc..) . The mall is exactly across the street as well as located off of Katy Fwy.  Had an wonderful experience with my finance and 9 month old daughter . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r334496594-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>334496594</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Beautiful property and good management</t>
+  </si>
+  <si>
+    <t>Very nice property conveniently located near Katy Mills Outlet Mall and I-10. Rooms are very niice with great work station. Fast internet. Beautiful pool but not heated. Hot tub was good. Nice outdoor fireplace and seating area</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r334030331-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>334030331</t>
+  </si>
+  <si>
+    <t>12/20/2015</t>
+  </si>
+  <si>
+    <t>Great New Property</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel, opened about 3 months ago so everything is new and fresh looking. In addition to looking great, the staff was wonderful and appeared to be very well trained. As a platinum rewards member, I was upgraded to a large suite which offered plenty of room to work along with a great bathroom with a large shower. If you find yourself in or near Katy, TX, I highly recommend staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r333881738-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>333881738</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>Courtyard has never looked this good</t>
+  </si>
+  <si>
+    <t>Haven't stayed at a Courtyard in probably 10 years so didn't know what to expect. This one is only a few months old and the new design is modern and inviting. My room is very comfortable with tons of USB and electric outlets to charge multiple devices. Initial scan of the tv choices showed Netflix and Crackle, which I did not expect. The bathrooms feature Paul Mitchell products, which is always nice. While a highway and a mall are not that far away, my room was super quiet. During check in, Brian helped me very quickly and with a smile. The person who helped me last night when I grabbed a snack from their little market was also very sweet - popped the top off my beer as well. Breakfast this morning was tasty and served with a smile in a comfy area that included little TVs to scan while eating. Bottom line - should I have to come to the Katy area again, I would not hesitate to book here. 
+The outside pool and lounge area looked quite nice but not really usable in the temps this time of year. The gym was fine for Cardio but needs more weight equipment, mats to do abs on, and a water machine that works. 
+Two other slightly negative things - the new elevators have a buzzing noise they make when they hit your floor that is a bit jarring. Could tone...Haven't stayed at a Courtyard in probably 10 years so didn't know what to expect. This one is only a few months old and the new design is modern and inviting. My room is very comfortable with tons of USB and electric outlets to charge multiple devices. Initial scan of the tv choices showed Netflix and Crackle, which I did not expect. The bathrooms feature Paul Mitchell products, which is always nice. While a highway and a mall are not that far away, my room was super quiet. During check in, Brian helped me very quickly and with a smile. The person who helped me last night when I grabbed a snack from their little market was also very sweet - popped the top off my beer as well. Breakfast this morning was tasty and served with a smile in a comfy area that included little TVs to scan while eating. Bottom line - should I have to come to the Katy area again, I would not hesitate to book here. The outside pool and lounge area looked quite nice but not really usable in the temps this time of year. The gym was fine for Cardio but needs more weight equipment, mats to do abs on, and a water machine that works. Two other slightly negative things - the new elevators have a buzzing noise they make when they hit your floor that is a bit jarring. Could tone that down a bit. Also, no matter what room you get, you will either have a stirring view of a highway or an inviting outlet mall so if you want a spectacular view, this is not the place for you. MoreShow less</t>
+  </si>
+  <si>
+    <t>Haven't stayed at a Courtyard in probably 10 years so didn't know what to expect. This one is only a few months old and the new design is modern and inviting. My room is very comfortable with tons of USB and electric outlets to charge multiple devices. Initial scan of the tv choices showed Netflix and Crackle, which I did not expect. The bathrooms feature Paul Mitchell products, which is always nice. While a highway and a mall are not that far away, my room was super quiet. During check in, Brian helped me very quickly and with a smile. The person who helped me last night when I grabbed a snack from their little market was also very sweet - popped the top off my beer as well. Breakfast this morning was tasty and served with a smile in a comfy area that included little TVs to scan while eating. Bottom line - should I have to come to the Katy area again, I would not hesitate to book here. 
+The outside pool and lounge area looked quite nice but not really usable in the temps this time of year. The gym was fine for Cardio but needs more weight equipment, mats to do abs on, and a water machine that works. 
+Two other slightly negative things - the new elevators have a buzzing noise they make when they hit your floor that is a bit jarring. Could tone...Haven't stayed at a Courtyard in probably 10 years so didn't know what to expect. This one is only a few months old and the new design is modern and inviting. My room is very comfortable with tons of USB and electric outlets to charge multiple devices. Initial scan of the tv choices showed Netflix and Crackle, which I did not expect. The bathrooms feature Paul Mitchell products, which is always nice. While a highway and a mall are not that far away, my room was super quiet. During check in, Brian helped me very quickly and with a smile. The person who helped me last night when I grabbed a snack from their little market was also very sweet - popped the top off my beer as well. Breakfast this morning was tasty and served with a smile in a comfy area that included little TVs to scan while eating. Bottom line - should I have to come to the Katy area again, I would not hesitate to book here. The outside pool and lounge area looked quite nice but not really usable in the temps this time of year. The gym was fine for Cardio but needs more weight equipment, mats to do abs on, and a water machine that works. Two other slightly negative things - the new elevators have a buzzing noise they make when they hit your floor that is a bit jarring. Could tone that down a bit. Also, no matter what room you get, you will either have a stirring view of a highway or an inviting outlet mall so if you want a spectacular view, this is not the place for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r329605457-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>329605457</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Beautiful new Courtyard property, but they have a long way to go on customer service</t>
+  </si>
+  <si>
+    <t>This brand new Courtyard looks fantastic and has a great pool area.  However, its allure is outweighed by its shortcomings and I won't be back anytime soon.  This was a very frustrating stay for me.
+I and many other guests had to return to the front desk at least once daily to have my room keys re-made due to system problems.  With a line of people all having this problem, the front desk agents blamed the guests for placing the keys too close to our mobile phones when clearly this was some sort of system problem.
+As a Marriott Rewards Platinum Elite Member, I requested a room upgrade.  There were three cars in the parking lot during most of my 4 night stay so there was plenty of availability.  Two different staff members told me that only a manager was empowered to approve a room upgrade, and none was available the three times that I asked.  The night clerk Daniel promised to pass along my request to the manager in the morning, but I was never contacted.  This is not what I have come to expect from Marriott, which generally prides itself on empowering its team members to ensure guest satisfaction.
+Housekeeping slid a note under our room door before 9am each day, stating that they were unable to service the room because of the Do Not Disturb sign, despite the fact that their team was working on our floor...This brand new Courtyard looks fantastic and has a great pool area.  However, its allure is outweighed by its shortcomings and I won't be back anytime soon.  This was a very frustrating stay for me.I and many other guests had to return to the front desk at least once daily to have my room keys re-made due to system problems.  With a line of people all having this problem, the front desk agents blamed the guests for placing the keys too close to our mobile phones when clearly this was some sort of system problem.As a Marriott Rewards Platinum Elite Member, I requested a room upgrade.  There were three cars in the parking lot during most of my 4 night stay so there was plenty of availability.  Two different staff members told me that only a manager was empowered to approve a room upgrade, and none was available the three times that I asked.  The night clerk Daniel promised to pass along my request to the manager in the morning, but I was never contacted.  This is not what I have come to expect from Marriott, which generally prides itself on empowering its team members to ensure guest satisfaction.Housekeeping slid a note under our room door before 9am each day, stating that they were unable to service the room because of the Do Not Disturb sign, despite the fact that their team was working on our floor until mid-afternoon each day.One of the things I enjoy about the Courtyard brand is that most properties have a whirlpool spa. Although the pool and spa generally "soft-close" at 10pm, as long as you're quiet you can generally use the whirlpool spa later in the evening at most properties.  This property has the spa turned off after 10pm so I was not able to use it when I needed back relief at midnight.Finally, the internet.  With just a few cars in the parking lot, one might expect to get great internet speeds.  Not so.  The internet crawled for most of our visit, despite having purchased the premium internet package.There was nothing at all wrong with the hotel property itself.  The place is in great shape, the room was clean and well designed, everything worked well (except the internet speed) and it was quiet.  So while this property could be great, the total lack of attention to guest satisfaction really turned my stay around from relaxing to frustrating.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>This brand new Courtyard looks fantastic and has a great pool area.  However, its allure is outweighed by its shortcomings and I won't be back anytime soon.  This was a very frustrating stay for me.
+I and many other guests had to return to the front desk at least once daily to have my room keys re-made due to system problems.  With a line of people all having this problem, the front desk agents blamed the guests for placing the keys too close to our mobile phones when clearly this was some sort of system problem.
+As a Marriott Rewards Platinum Elite Member, I requested a room upgrade.  There were three cars in the parking lot during most of my 4 night stay so there was plenty of availability.  Two different staff members told me that only a manager was empowered to approve a room upgrade, and none was available the three times that I asked.  The night clerk Daniel promised to pass along my request to the manager in the morning, but I was never contacted.  This is not what I have come to expect from Marriott, which generally prides itself on empowering its team members to ensure guest satisfaction.
+Housekeeping slid a note under our room door before 9am each day, stating that they were unable to service the room because of the Do Not Disturb sign, despite the fact that their team was working on our floor...This brand new Courtyard looks fantastic and has a great pool area.  However, its allure is outweighed by its shortcomings and I won't be back anytime soon.  This was a very frustrating stay for me.I and many other guests had to return to the front desk at least once daily to have my room keys re-made due to system problems.  With a line of people all having this problem, the front desk agents blamed the guests for placing the keys too close to our mobile phones when clearly this was some sort of system problem.As a Marriott Rewards Platinum Elite Member, I requested a room upgrade.  There were three cars in the parking lot during most of my 4 night stay so there was plenty of availability.  Two different staff members told me that only a manager was empowered to approve a room upgrade, and none was available the three times that I asked.  The night clerk Daniel promised to pass along my request to the manager in the morning, but I was never contacted.  This is not what I have come to expect from Marriott, which generally prides itself on empowering its team members to ensure guest satisfaction.Housekeeping slid a note under our room door before 9am each day, stating that they were unable to service the room because of the Do Not Disturb sign, despite the fact that their team was working on our floor until mid-afternoon each day.One of the things I enjoy about the Courtyard brand is that most properties have a whirlpool spa. Although the pool and spa generally "soft-close" at 10pm, as long as you're quiet you can generally use the whirlpool spa later in the evening at most properties.  This property has the spa turned off after 10pm so I was not able to use it when I needed back relief at midnight.Finally, the internet.  With just a few cars in the parking lot, one might expect to get great internet speeds.  Not so.  The internet crawled for most of our visit, despite having purchased the premium internet package.There was nothing at all wrong with the hotel property itself.  The place is in great shape, the room was clean and well designed, everything worked well (except the internet speed) and it was quiet.  So while this property could be great, the total lack of attention to guest satisfaction really turned my stay around from relaxing to frustrating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r326930636-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>326930636</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Management Is In Dire Need of Hospitality Training</t>
+  </si>
+  <si>
+    <t>Nice property, appears fairly new, conveniently located. 
+Booked for 2 nights, Friday and Saturday.  Saturday morning I found that the Night Audit staff slid a copy of my folio under my door, indicating that I was expected to check out. Thinking this was an error, I made sure my name was on it; check. 
+I stopped by front desk on my way out, they only showed me for one night. Not a problem, I thought, and I asked the young lady to extend me. The politely told me she did not believe she could, as it looked like they were sold out for Saturday night. Quick check, as she thought might be one room left.  No joy, they were booked full.  
+I asked that she have the MOD call when s/he came on duty, and I confirmed my telephone number.  The clerk was apologetic, and I told her it was not her fault, and that perhaps the manager could fix or explain why not. 
+I returned to the property a couple hours later, I told same clerk I had not yet received a call from the manager. She tried to get the manager for me, and came back stating manager was in a meeting and would call when done. 
+A couple hours later we packed our bags and left.  After loading up the car, I returned room key and told (same) clerk that I never received a return call, and...Nice property, appears fairly new, conveniently located. Booked for 2 nights, Friday and Saturday.  Saturday morning I found that the Night Audit staff slid a copy of my folio under my door, indicating that I was expected to check out. Thinking this was an error, I made sure my name was on it; check. I stopped by front desk on my way out, they only showed me for one night. Not a problem, I thought, and I asked the young lady to extend me. The politely told me she did not believe she could, as it looked like they were sold out for Saturday night. Quick check, as she thought might be one room left.  No joy, they were booked full.  I asked that she have the MOD call when s/he came on duty, and I confirmed my telephone number.  The clerk was apologetic, and I told her it was not her fault, and that perhaps the manager could fix or explain why not. I returned to the property a couple hours later, I told same clerk I had not yet received a call from the manager. She tried to get the manager for me, and came back stating manager was in a meeting and would call when done. A couple hours later we packed our bags and left.  After loading up the car, I returned room key and told (same) clerk that I never received a return call, and that I was disappointed in the manager's lack of courtesy and professionalism. At this point, the clerk told me that "she said you could stay until 6 at no charge."  Seriously?  Nobody called to tell me.  I told her I needed a sure thing and left.  I told her that with two broken arms I was not about to unload my car again, only to have to leave at 6 if nobody no-showed on their reservation. It is now twenty four hours later, and the common courtesy of a callback still has not been received.  More a reflection on them than anything else. Maybe they were full that night and they did not feel the need to be courteous because they could not generate any extra cash that night by doing so.  If so, shame on them.  The goodwill they have lost will have ripple effects over time.  Too many comparable hotels within five minutes of this site, no reason to put up with it; we won't be back. Try the Springhill Suites, also by Marriott and also adjacent to Katy Mills.  Less than a mile away, easier access, a nicer property, great staff, almost identical rates, and you get a hot breakfast included.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice property, appears fairly new, conveniently located. 
+Booked for 2 nights, Friday and Saturday.  Saturday morning I found that the Night Audit staff slid a copy of my folio under my door, indicating that I was expected to check out. Thinking this was an error, I made sure my name was on it; check. 
+I stopped by front desk on my way out, they only showed me for one night. Not a problem, I thought, and I asked the young lady to extend me. The politely told me she did not believe she could, as it looked like they were sold out for Saturday night. Quick check, as she thought might be one room left.  No joy, they were booked full.  
+I asked that she have the MOD call when s/he came on duty, and I confirmed my telephone number.  The clerk was apologetic, and I told her it was not her fault, and that perhaps the manager could fix or explain why not. 
+I returned to the property a couple hours later, I told same clerk I had not yet received a call from the manager. She tried to get the manager for me, and came back stating manager was in a meeting and would call when done. 
+A couple hours later we packed our bags and left.  After loading up the car, I returned room key and told (same) clerk that I never received a return call, and...Nice property, appears fairly new, conveniently located. Booked for 2 nights, Friday and Saturday.  Saturday morning I found that the Night Audit staff slid a copy of my folio under my door, indicating that I was expected to check out. Thinking this was an error, I made sure my name was on it; check. I stopped by front desk on my way out, they only showed me for one night. Not a problem, I thought, and I asked the young lady to extend me. The politely told me she did not believe she could, as it looked like they were sold out for Saturday night. Quick check, as she thought might be one room left.  No joy, they were booked full.  I asked that she have the MOD call when s/he came on duty, and I confirmed my telephone number.  The clerk was apologetic, and I told her it was not her fault, and that perhaps the manager could fix or explain why not. I returned to the property a couple hours later, I told same clerk I had not yet received a call from the manager. She tried to get the manager for me, and came back stating manager was in a meeting and would call when done. A couple hours later we packed our bags and left.  After loading up the car, I returned room key and told (same) clerk that I never received a return call, and that I was disappointed in the manager's lack of courtesy and professionalism. At this point, the clerk told me that "she said you could stay until 6 at no charge."  Seriously?  Nobody called to tell me.  I told her I needed a sure thing and left.  I told her that with two broken arms I was not about to unload my car again, only to have to leave at 6 if nobody no-showed on their reservation. It is now twenty four hours later, and the common courtesy of a callback still has not been received.  More a reflection on them than anything else. Maybe they were full that night and they did not feel the need to be courteous because they could not generate any extra cash that night by doing so.  If so, shame on them.  The goodwill they have lost will have ripple effects over time.  Too many comparable hotels within five minutes of this site, no reason to put up with it; we won't be back. Try the Springhill Suites, also by Marriott and also adjacent to Katy Mills.  Less than a mile away, easier access, a nicer property, great staff, almost identical rates, and you get a hot breakfast included.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r324929116-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>324929116</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Beautiful Property!</t>
+  </si>
+  <si>
+    <t>First time at this property and this location is the newest format for Courtyard by Marriott. European showers, fresh look, beautifully appointed accents and very welcoming. The staff were very helpful and The bistro super nice. This is a larger format for the Courtyard brand. Very spacious. It is right next door to the Bass Pro Shops store and easy to get to off the interstate. I will definitely stay here on my next trip.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1269,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1301,2446 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>124</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>126</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" t="s">
+        <v>128</v>
+      </c>
+      <c r="L14" t="s">
+        <v>129</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O14" t="s">
+        <v>117</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>141</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>87</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>87</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>87</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>192</v>
+      </c>
+      <c r="K25" t="s">
+        <v>104</v>
+      </c>
+      <c r="L25" t="s">
+        <v>193</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" t="s">
+        <v>208</v>
+      </c>
+      <c r="K28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>65</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>216</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" t="s">
+        <v>225</v>
+      </c>
+      <c r="K31" t="s">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s">
+        <v>227</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>216</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>240</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>241</v>
+      </c>
+      <c r="J34" t="s">
+        <v>242</v>
+      </c>
+      <c r="K34" t="s">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s">
+        <v>244</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>239</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" t="s">
+        <v>249</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>250</v>
+      </c>
+      <c r="O35" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>252</v>
+      </c>
+      <c r="J36" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" t="s">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s">
+        <v>255</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>250</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" t="s">
+        <v>259</v>
+      </c>
+      <c r="L37" t="s">
+        <v>260</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>250</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>263</v>
+      </c>
+      <c r="J38" t="s">
+        <v>264</v>
+      </c>
+      <c r="K38" t="s">
+        <v>265</v>
+      </c>
+      <c r="L38" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>267</v>
+      </c>
+      <c r="O38" t="s">
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J39" t="s">
+        <v>271</v>
+      </c>
+      <c r="K39" t="s">
+        <v>272</v>
+      </c>
+      <c r="L39" t="s">
+        <v>273</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>267</v>
+      </c>
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>276</v>
+      </c>
+      <c r="J40" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" t="s">
+        <v>278</v>
+      </c>
+      <c r="L40" t="s">
+        <v>279</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>267</v>
+      </c>
+      <c r="O40" t="s">
+        <v>65</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_144.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_144.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="431">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,84 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r607977092-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>56062</t>
+  </si>
+  <si>
+    <t>8796649</t>
+  </si>
+  <si>
+    <t>607977092</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Nice wedding hotel</t>
+  </si>
+  <si>
+    <t>Went for a family wedding, the hotel was fine, no issues at all.  Drinks were a little pricey. Check out was easy.  I like the free parking, with lots of buggies so you may bring in your luggage.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r587728218-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>587728218</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Ripped off- worst hospitality</t>
+  </si>
+  <si>
+    <t>If you work hard for your money as I do. Stay away from this hotel...they'll steal from you. My husband and I stayed here on June 9th. We paid in advance for breakfast. When we went to check in they failed to provide us our breakfast vouchers. In the morning, Cheryl argued with me for 30min. about how we never paid for breakfast until I finally insisted she call Marriott's 800# to confirm. Another 30min went by. They told her we had already paid. Cheryl filled out 2 vouchers and practically flung them at me. Then proceeded to charge our room the money for them. When I approached her at checkout she swore my card would not be charged. Well guess what, it was. I call Marriott to dispute who denied the over charge and they said I'll have to work it out with the hotel. UNBELIEVABLE!  So glad they can charge whatever they want to your account without authorization and no one cares.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Louis B, Manager at Courtyard Houston Katy Mills, responded to this reviewResponded June 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2018</t>
+  </si>
+  <si>
+    <t>If you work hard for your money as I do. Stay away from this hotel...they'll steal from you. My husband and I stayed here on June 9th. We paid in advance for breakfast. When we went to check in they failed to provide us our breakfast vouchers. In the morning, Cheryl argued with me for 30min. about how we never paid for breakfast until I finally insisted she call Marriott's 800# to confirm. Another 30min went by. They told her we had already paid. Cheryl filled out 2 vouchers and practically flung them at me. Then proceeded to charge our room the money for them. When I approached her at checkout she swore my card would not be charged. Well guess what, it was. I call Marriott to dispute who denied the over charge and they said I'll have to work it out with the hotel. UNBELIEVABLE!  So glad they can charge whatever they want to your account without authorization and no one cares.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r581155462-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>581155462</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t>Gorgeous Marriott Hotel in Katy!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is clearly one of the most gorgeous Marriott hotels in the Katy area!  The hotel is brand new, located in an excellent location, and is beautiful - the color schemes in the lobby and the guest rooms are to die for!  The staff is fantastic and ready to assist 24 hours per day, and for you Starbucks die-hards, they offer Starbucks At The Hotel 24 hours per day! </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r564895917-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
-    <t>56062</t>
-  </si>
-  <si>
-    <t>8796649</t>
-  </si>
-  <si>
     <t>564895917</t>
   </si>
   <si>
@@ -216,6 +282,39 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r554494654-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>554494654</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t>Fantastic people</t>
+  </si>
+  <si>
+    <t>We were here January 16, 2018, when the Houston area was hit with bad ice and frigid temps. All the local restaurants closed early, so the hotel staff was inundated with dozens of hungry, ice-bound guests in the hotel bistro. They handled it all with grace and style. always smiling, always friendly. They were wonderful. Thanks so much for a very pleasant stay (the hotel is modern and spotless) and extra thanks for the wonderful staff who went the extra mile (and then some) for their guests during a difficult time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r548435607-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>548435607</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>New sleek feel to hotel property</t>
+  </si>
+  <si>
+    <t>This Courtyard was really nice.  It was very clean and the King room had ample space to move around and work.  The staff were friendly and the restaurant had a good selection for any meal.  The only drawback was that the hotel did not provide free coffee in the morning in the lobby.  I think that is a must for travelers.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r545643767-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -231,9 +330,6 @@
     <t>Friendly people, beautiful facility, clean room with interesting and uncluttered architecture. Bistro on site. Easy access but not so close to the freeway there's noise. Quiet. Got a good night's sleep. Will stay again.</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r540683298-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -252,9 +348,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Chris C, General Manager at Courtyard Houston Katy Mills, responded to this reviewResponded November 16, 2017</t>
   </si>
   <si>
@@ -279,7 +372,37 @@
     <t>In town for a wedding at Briscoe Manor. We booked this hotel because of its closeness to the venue and it being literally in the parking lot of Katy Mills Mall. We stayed in room 222 with a large king sized bed, spacious walk-in shower,refrigerator, and microwave. The room is very close to the elevator but we didn’t hear it. The housekeeping staff were very loud. The hotel is near Red Lobster, T.G.I Friday’s, Popeyes, Burger King, Panera Bread , and CiCis pizza. We will return soon.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r539049287-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>539049287</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Great new Hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel close to Katy Mills.Clean big room with great big bed and a coach to sit and enjoy the flatscreen TV or great to sig and work at.Nice bathroom with big shower area.Breakfast very expensive but high quality.See my pictures from Hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r536041872-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>536041872</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pilot Training event at the Courtyard Hotel </t>
+  </si>
+  <si>
+    <t>We had a training event at the Hotel last weekend with 36 general aviation Pilots.  When I heard that it was being held at a Courtyard Hotel I was skeptical.  But, they did an excellent job!  The rooms were nice, the conference rooms were just what we needed and the food was excellent.  Let me say that again, the food was excellent.  Sorry, but who would have thought that!  The chef really went out of his way to please us.  This really is a good place to hold an event like ours with around fifty people.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r532740950-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -297,9 +420,6 @@
     <t>We came here for a business meeting.  I was so disappointed we could only stay one night!  They have an amazing pool area with two different outdoor gathering areas with fireplaces and a hot tub.  A beautiful sitting area inside with a big screen TV.  But honestly who would want to be in the lobby when the room is amazing!!!  We had a suite and it was huge!  I think I have lived in apartments smaller than this room!  Everything you could need.  microwave, small fridge and a great walk in shower.  The hotel staff is nice and accommodating.  They also have a Bistro in the lobby for Breakfast and Dinner.  We didn't eat there, but it was nice to have the option.  Oh, and free wifi!  I always hate when you stay in a nicer place and they charge you for wifi!  Great location with a lot of things to do nearby.  Like I said, I wish we had more time here....MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
     <t>We came here for a business meeting.  I was so disappointed we could only stay one night!  They have an amazing pool area with two different outdoor gathering areas with fireplaces and a hot tub.  A beautiful sitting area inside with a big screen TV.  But honestly who would want to be in the lobby when the room is amazing!!!  We had a suite and it was huge!  I think I have lived in apartments smaller than this room!  Everything you could need.  microwave, small fridge and a great walk in shower.  The hotel staff is nice and accommodating.  They also have a Bistro in the lobby for Breakfast and Dinner.  We didn't eat there, but it was nice to have the option.  Oh, and free wifi!  I always hate when you stay in a nicer place and they charge you for wifi!  Great location with a lot of things to do nearby.  Like I said, I wish we had more time here....More</t>
   </si>
   <si>
@@ -336,6 +456,42 @@
     <t>The rooms are nice and neat. Plenty of room. Bathrooms were clean.  The Bistro has excellent Food.  Ivory, the chef, takes pride in everything that is made. The outside patio area and pool is perfect for socializing.  If you choose, it's within walking distance to Fudruckers and several other Restaurants. Just a short drive across the parking lot to Katy Mills Mall on the Bass Pro side. Also very close to the nearby waterpark.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r506801572-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>506801572</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Facility</t>
+  </si>
+  <si>
+    <t>Stayed here last night on our way back to Florida.  The hotel is 2 years old but looks like it's brand new.  We were booked to be on the 3rd floor with a bride &amp; groom booked to be above us.  The staff at the front desk moved us to the 4th floor to avoid being disturbed by the bride &amp; her bridesmaids.  Our room was perfect - Quiet &amp; beautifully decorated with ample lighting.  We had a great nights stay there.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r495000038-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>495000038</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Great hotel - super reasonable prices</t>
+  </si>
+  <si>
+    <t>Looks brand new - hotel is modern.  Rooms are quiet, spacious, clean, and comfortable.  Bathroom was a great size.  Can't beat Starbucks in the bistro.  Great service and can walk to many restaurants - and the mall across the way.  Would definitely recommend.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r493254717-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -351,9 +507,6 @@
     <t>traveriers, this is an Outstanding Courtyard with great WiFi! This is a new Courtyard that is in Great shape. Rooms are nice and the bed is very compy! It also has really good WiFi speed. Customer service is great!</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r492611355-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -393,6 +546,36 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r478964594-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>478964594</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family gathering </t>
+  </si>
+  <si>
+    <t>Very nice hotel with really nice courtyard. Only food or drink is a little Starbucks Bistro-no complimentary coffee bar. They forgot to service our room after first night of 2 night stay. Folks friendly- good rate</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r474837111-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>474837111</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Nice newer Courtyard | Need to update their Wifi</t>
+  </si>
+  <si>
+    <t>Check in(5/5) - Checked in using the mobile app, and had my room ready and was greeted right away as a Gold member, and thanked for my loyalty - nice touch.Room (5/5) - Nice bed, clean room and shower.  One of the nicer and newer Courtyards I have stayed in this year.Bistro (5/5) - Great service for a late meal, ordered a quesadilla and brussel sprouts and were surprised how great both were!  WiFi (0/5) Stayed on the 4th floor and couldn't get any WiFi signal in room 402.  I could connect in the lobby.  I hope they invest in some new equipment to reach all the rooms.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r472680660-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -444,6 +627,36 @@
     <t>This is my 2nd time at this Courtyard and both have been excellent. Check in team is efficient. Rooms very nice, great patio with lots of room. Awesome Bistro staff... Big man, Ivory is a character. Guided us to local Italian food venue that was great. Invited us to "in house" Fat Tuesday Cajun feast...It's teams like this one that make biz travel much better. There are lots of choices at Katy Mills for hotels. Chose this one if you can.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r461480703-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>461480703</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arrived late and was greeted promptly. Offered a complimentary beverage which I thought was awesome. The room was spotless, spacious, and comfortable. It's raining today, so I am. It sure that we will have an opportunity to use the pool but overall a fantastic location and great service. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r458348582-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>458348582</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Updated, modern and new</t>
+  </si>
+  <si>
+    <t>I gave it the highest rating but it is still a Courtyard Marriot, not a 5 star resort or Four seasons, so don't want anyone to think differently. For a mid tier hotel, it was new, clean, modern, staff was great. Manager(Louis)went beyond to take care of us. The food at the bistro in the lobby was excellent. Updated and new. I recommend an extra comforter/blanket if you like your room cold. Made the bed feel more high end Duvet.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r451244967-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -501,6 +714,36 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r437858309-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>437858309</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times and have not been disappointed.  It fills up pretty quickly and I have to remember to book when I am coming to town.  Ivory (Food and Beverage Mgr) always brightens my day!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r437526308-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>437526308</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and relaxing</t>
+  </si>
+  <si>
+    <t>The room was clean and the front desk hosts were extremely helpful and friendly. I would recommend the restaurant...breakfast porridge, oatmeal, burrito, and blueberry pancakes were delicious. Restaurant manager and staff were also friendly and very helpful. There were many places in the lobby and out side to relax and visit with friends by the pool, spa, fireplace, and water scape. A lovely experience overall. Would definitely stay there again.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r422977085-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -549,6 +792,51 @@
     <t>caught a great rate on expedia and this was a very good hotel. The only negative is to beware of the soap on the bathroom floor as it became very slick!! and had a slight slip but caught myself.Bed was great, and it had all of the amenities that you would expect from an upper mid range hotel. The only negative was that there is breakfast, but you have to pay for it and we really didn't want to pay $$ for just a muffin, so we went around a corner and had breakfast each morning at Denny's. If Starbucks is for you,  then this is your place... just not us in the food department.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r407839647-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>407839647</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>What a gem in Katy!</t>
+  </si>
+  <si>
+    <t>The hotel is very new, extremely clean, located near many restaurants,  the Katy Mills mall is within walking distance and it is convenient to I-10, yet not right on top of the highway.  Bed was oh so comfortable,  bar was perfect and the staff was very friendly!  I will stay here again.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r397654810-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>397654810</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Roach infested</t>
+  </si>
+  <si>
+    <t>Very poor management.  Roach eggs in our bed... later had to kill a roach in the bathroom.  When we tried to report the roaches on the top floor we were told they came in from outside.  Yes, they may have unless they hatched from the eggs!  We were told we could move or they would spray our room.  We had unpacked and needed to leave for an event we had come to Katy to attend and we did not want to live with fresh spray so we chose to stay.  We were treated as though we were making the roaches up and wanted something for nothing.  When we returned we discovered the WiFi was not working, again we were treated as though it was our problem not the hotel.  The next morning we discovered two vouchers for breakfast.  Considering the problem with roaches on the top floor, we were not about to eat food prepared on the first floor!  Would never stay in this hotel ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2016</t>
+  </si>
+  <si>
+    <t>Very poor management.  Roach eggs in our bed... later had to kill a roach in the bathroom.  When we tried to report the roaches on the top floor we were told they came in from outside.  Yes, they may have unless they hatched from the eggs!  We were told we could move or they would spray our room.  We had unpacked and needed to leave for an event we had come to Katy to attend and we did not want to live with fresh spray so we chose to stay.  We were treated as though we were making the roaches up and wanted something for nothing.  When we returned we discovered the WiFi was not working, again we were treated as though it was our problem not the hotel.  The next morning we discovered two vouchers for breakfast.  Considering the problem with roaches on the top floor, we were not about to eat food prepared on the first floor!  Would never stay in this hotel ever again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r397070363-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -600,6 +888,50 @@
     <t xml:space="preserve">Had a wonderful one night stay at this hotel. Rooms are very clean and modern and the bed was very comfortable. The bathroom and shower was very spacious. Also, the breakfast in the lobby bistro was very good as was the service. I would stay here again! </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r389601385-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>389601385</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Splendid</t>
+  </si>
+  <si>
+    <t>My family stopped here on our way out of Houston. The hotel is new and it is definitely different from the old courtyards of yesteryear. The rooms are sleek and modern with plenty of plugs for technology and no extra fluff anywhere. The beds did not even have the anchoring headboards!!!! I loved the spotlighting and the spaciousness of our double queen room. The bath was basic but clean. The other part of our party had a double queen suite. Although the suite had half a wall separating the small sofa from the bedroom, it was enough for my 9 year old niece to feel as though she had her own room complete with tv. The rooms weren't the selling point for my family though. It was the spacious common areas with the big screen tv and loungers AND the awesome pool/hot tub/firepit area. My kids aged 8, 9, &amp; 11 loved it! The pool was perfect for my 3 as we were the only users on that night. Although there weren't any meetings going on, I did peruse that area and it looked to be an awesome venue with an intimate outdoor water area. Great for a wedding reception even! We did miss having a complimentary breakfast but there are many restaurant options in the immediate area that served breakfast.   MoreShow less</t>
+  </si>
+  <si>
+    <t>My family stopped here on our way out of Houston. The hotel is new and it is definitely different from the old courtyards of yesteryear. The rooms are sleek and modern with plenty of plugs for technology and no extra fluff anywhere. The beds did not even have the anchoring headboards!!!! I loved the spotlighting and the spaciousness of our double queen room. The bath was basic but clean. The other part of our party had a double queen suite. Although the suite had half a wall separating the small sofa from the bedroom, it was enough for my 9 year old niece to feel as though she had her own room complete with tv. The rooms weren't the selling point for my family though. It was the spacious common areas with the big screen tv and loungers AND the awesome pool/hot tub/firepit area. My kids aged 8, 9, &amp; 11 loved it! The pool was perfect for my 3 as we were the only users on that night. Although there weren't any meetings going on, I did peruse that area and it looked to be an awesome venue with an intimate outdoor water area. Great for a wedding reception even! We did miss having a complimentary breakfast but there are many restaurant options in the immediate area that served breakfast.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r389111408-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>389111408</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Shocked and Surprised</t>
+  </si>
+  <si>
+    <t>Last Thursday, 6/30, we arrived at the Courtyard, Katy, TX (a reservation made by another at my request for a convenient location) at about 9PM for a 2 night stay.  Check in was slow, a new clerk, but inexperience is forgivable.  The property is “nearly new” with that starkly functional contemporary look, reminding me that for some of us, the 50s have caught up again or “Bauhaus is back!”.  The 4th floor room was nice until the bedding revealed a large cockroach egg case.  We didn’t react, brushing it away, thinking that we might have brought it in with our baggage and other materials we were carrying.
+	But then early morning brought a more unpleasant surprise, a juvenile cockroach skittering across the bathroom floor, evidence that the roaches were not ours, but the Courtyard’s.  On the way out about 9AM, I asked to speak to the MoD.  He was apologetic, but well short of gracious.  He offered to move us.  My response....We’re on our way out for a busy morning and a noon engagement.  Moving our gear simply didn’t fir our schedule.  As for spraying the room, please spare us that fate, clothing and luggage reeking with “Bug Spray” and the potential for the almost inevitable reaction to a “Just De-Bugged” room).  Having seen no more evidence of infestation, I chose to “Stand fast”, calculating that in a nearly new hotel (even in the pestilential former rice fields West of...Last Thursday, 6/30, we arrived at the Courtyard, Katy, TX (a reservation made by another at my request for a convenient location) at about 9PM for a 2 night stay.  Check in was slow, a new clerk, but inexperience is forgivable.  The property is “nearly new” with that starkly functional contemporary look, reminding me that for some of us, the 50s have caught up again or “Bauhaus is back!”.  The 4th floor room was nice until the bedding revealed a large cockroach egg case.  We didn’t react, brushing it away, thinking that we might have brought it in with our baggage and other materials we were carrying.	But then early morning brought a more unpleasant surprise, a juvenile cockroach skittering across the bathroom floor, evidence that the roaches were not ours, but the Courtyard’s.  On the way out about 9AM, I asked to speak to the MoD.  He was apologetic, but well short of gracious.  He offered to move us.  My response....We’re on our way out for a busy morning and a noon engagement.  Moving our gear simply didn’t fir our schedule.  As for spraying the room, please spare us that fate, clothing and luggage reeking with “Bug Spray” and the potential for the almost inevitable reaction to a “Just De-Bugged” room).  Having seen no more evidence of infestation, I chose to “Stand fast”, calculating that in a nearly new hotel (even in the pestilential former rice fields West of Houston) would not be subject to 4th floor high altitude climbing cucarachas (unless the general contractor’s punch list had omitted an important item, substantial treatment for insects before turnover).	Well, we returned about 230PM to find the room uncleaned, a bit of a shock.  In my experience (certainly applicable to Marriotts), occupied rooms are high up the housekeeping staff’s morning “To Do” list.  Then we discovered that the hotel’s “Free” wireless was dysfunctional, at least in our top floor room.  Maybe the roaches were devouring the signal (although thankfully they remained in hiding or had evacuated).	Finally, about 330PM, a housekeeper appeared.  Working away as best we could with cell service, we asked her to simply ignore the room and clean/restock the bath.  To me, cleaning a bathroom includes a modest attempt to clean the toilet.  She didn’t feel that way.  Soon after, not exactly comfortable with the Courtyard, we left early for our planned evening.	Returning later, one of the management staff offered us 2 “free” breakfasts for the next morning.  My response....Having obviously worn out our non-welcome, we were leaving early to breakfast with others, although I trusted that relatives of the cucarachas we had met up on 4 were not sharing quarters in the Bistro.  Had the breakfasts been offered on the first morning, my response might have been better.  My request for a credit/bill adjustment was denied, not unreasonably since the reservation was a “pre-paid” through Expedia.	We’ve stayed in Marriott properties, of every level) for decades, from the East to the Left coasts.  For some years, I was a regular guest at Washington’s Pennsylvania Ave. Hotel, long a favorite.  Further afield, I recall stays at Vienna’s Spanish Riding School Marriott and the hotel in downtown Prague.  We do still have a few Rewards points, but after this unfortunate experience, I expect some better recompense than the late offer of a “free” breakfast in exchange for miserable service and hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2016</t>
+  </si>
+  <si>
+    <t>Last Thursday, 6/30, we arrived at the Courtyard, Katy, TX (a reservation made by another at my request for a convenient location) at about 9PM for a 2 night stay.  Check in was slow, a new clerk, but inexperience is forgivable.  The property is “nearly new” with that starkly functional contemporary look, reminding me that for some of us, the 50s have caught up again or “Bauhaus is back!”.  The 4th floor room was nice until the bedding revealed a large cockroach egg case.  We didn’t react, brushing it away, thinking that we might have brought it in with our baggage and other materials we were carrying.
+	But then early morning brought a more unpleasant surprise, a juvenile cockroach skittering across the bathroom floor, evidence that the roaches were not ours, but the Courtyard’s.  On the way out about 9AM, I asked to speak to the MoD.  He was apologetic, but well short of gracious.  He offered to move us.  My response....We’re on our way out for a busy morning and a noon engagement.  Moving our gear simply didn’t fir our schedule.  As for spraying the room, please spare us that fate, clothing and luggage reeking with “Bug Spray” and the potential for the almost inevitable reaction to a “Just De-Bugged” room).  Having seen no more evidence of infestation, I chose to “Stand fast”, calculating that in a nearly new hotel (even in the pestilential former rice fields West of...Last Thursday, 6/30, we arrived at the Courtyard, Katy, TX (a reservation made by another at my request for a convenient location) at about 9PM for a 2 night stay.  Check in was slow, a new clerk, but inexperience is forgivable.  The property is “nearly new” with that starkly functional contemporary look, reminding me that for some of us, the 50s have caught up again or “Bauhaus is back!”.  The 4th floor room was nice until the bedding revealed a large cockroach egg case.  We didn’t react, brushing it away, thinking that we might have brought it in with our baggage and other materials we were carrying.	But then early morning brought a more unpleasant surprise, a juvenile cockroach skittering across the bathroom floor, evidence that the roaches were not ours, but the Courtyard’s.  On the way out about 9AM, I asked to speak to the MoD.  He was apologetic, but well short of gracious.  He offered to move us.  My response....We’re on our way out for a busy morning and a noon engagement.  Moving our gear simply didn’t fir our schedule.  As for spraying the room, please spare us that fate, clothing and luggage reeking with “Bug Spray” and the potential for the almost inevitable reaction to a “Just De-Bugged” room).  Having seen no more evidence of infestation, I chose to “Stand fast”, calculating that in a nearly new hotel (even in the pestilential former rice fields West of Houston) would not be subject to 4th floor high altitude climbing cucarachas (unless the general contractor’s punch list had omitted an important item, substantial treatment for insects before turnover).	Well, we returned about 230PM to find the room uncleaned, a bit of a shock.  In my experience (certainly applicable to Marriotts), occupied rooms are high up the housekeeping staff’s morning “To Do” list.  Then we discovered that the hotel’s “Free” wireless was dysfunctional, at least in our top floor room.  Maybe the roaches were devouring the signal (although thankfully they remained in hiding or had evacuated).	Finally, about 330PM, a housekeeper appeared.  Working away as best we could with cell service, we asked her to simply ignore the room and clean/restock the bath.  To me, cleaning a bathroom includes a modest attempt to clean the toilet.  She didn’t feel that way.  Soon after, not exactly comfortable with the Courtyard, we left early for our planned evening.	Returning later, one of the management staff offered us 2 “free” breakfasts for the next morning.  My response....Having obviously worn out our non-welcome, we were leaving early to breakfast with others, although I trusted that relatives of the cucarachas we had met up on 4 were not sharing quarters in the Bistro.  Had the breakfasts been offered on the first morning, my response might have been better.  My request for a credit/bill adjustment was denied, not unreasonably since the reservation was a “pre-paid” through Expedia.	We’ve stayed in Marriott properties, of every level) for decades, from the East to the Left coasts.  For some years, I was a regular guest at Washington’s Pennsylvania Ave. Hotel, long a favorite.  Further afield, I recall stays at Vienna’s Spanish Riding School Marriott and the hotel in downtown Prague.  We do still have a few Rewards points, but after this unfortunate experience, I expect some better recompense than the late offer of a “free” breakfast in exchange for miserable service and hospitality.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r381056728-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -651,6 +983,39 @@
     <t>The Courtyard is beautiful and clean.The dining area and bar are nice as well.Bartender has a very pleasant demenor.Entire hotel has New Age Contemporary decor. I recommend for business or couples weekend.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r373906764-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>373906764</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Great Service in a Cool Hotel</t>
+  </si>
+  <si>
+    <t>Straight from the check in, service was warm and friendly.The Hotel is not very old and very cool decor.The rooms are spacious and well apointed, with lots of USB recharge points.The shower is massiveThe F&amp;B personnel were also very friendly and accomodatingI would have no problem recommending this hotel for staying at Katy Mills</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r371260745-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>371260745</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>We spent two nights in this hotel.   It is an almost new hotel with a beautiful lobby and nice rooms.  Sheets were of good quality and bed was comfortable.   We had two issues though.  The air conditioner in our room rattled and was loud enough it woke us up.  We were in 208.  The other issue was we left our room for the day at 11 and apparently that is too late if you want your room cleaned, because our room was not touched.  We contacted the front desk and asked if we could get a couple towels when we returned that evening and he said sure.  But when we got back that evening around 11:15, no one was at the front desk and we gave up after waiting there around 5 minutes.  I would recommend this hotel, unless you are not planning on being up and around early.  If you want to sleep in, just be aware, your room may not be cleaned.  We have stayed at both hotels directly across the street and never had that issue, so will stay there in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>We spent two nights in this hotel.   It is an almost new hotel with a beautiful lobby and nice rooms.  Sheets were of good quality and bed was comfortable.   We had two issues though.  The air conditioner in our room rattled and was loud enough it woke us up.  We were in 208.  The other issue was we left our room for the day at 11 and apparently that is too late if you want your room cleaned, because our room was not touched.  We contacted the front desk and asked if we could get a couple towels when we returned that evening and he said sure.  But when we got back that evening around 11:15, no one was at the front desk and we gave up after waiting there around 5 minutes.  I would recommend this hotel, unless you are not planning on being up and around early.  If you want to sleep in, just be aware, your room may not be cleaned.  We have stayed at both hotels directly across the street and never had that issue, so will stay there in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r368791393-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -702,6 +1067,36 @@
     <t>Used this hotel for a 2-day meeting. Hotel is spacious &amp; modern. Staff is extremely friendly and customer focused. All of the meeting attendees were impressed with the hotel and room rates! I will use this Courtyard in the future- it's much nicer than the Springhill Suites Katy Mills, that I've used in the past.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r364245440-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>364245440</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel, Fine Folks</t>
+  </si>
+  <si>
+    <t>Stayed here last night. Reception upon arrival was excellent and Brian was very helpful. Awesome clean rooms. Morning Bistro server Ivory was funny and very cheerful. Greeted everyone and truly cared about each guest!!! I'll be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r363772234-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>363772234</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Well designed, great customer service</t>
+  </si>
+  <si>
+    <t>Spacious, well designed room where I was able to bang out 12 hours of work in total comfort. The Bistro cook prepared a wonderful dinner and wanted me to know that if I had any special requests she would let her manager know. In the Bistro, there are individual booths with small individual television sets. I didn't care about watching TV, but the booths were designed so that people who were watching TV didn't bother those of us who weren't. Also, great exercise room. Also, great lounge chairs for reading in a quiet room off the lobby.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r357455487-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -753,6 +1148,39 @@
     <t xml:space="preserve">It was absolutely wonderful . Beautiful room , comfortable bedding and beds . Guest services were absolutely great .Its located in an perfect area surrounded by restaurants (red lobster, TGIF, Frudruckers ,etc..) . The mall is exactly across the street as well as located off of Katy Fwy.  Had an wonderful experience with my finance and 9 month old daughter . </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r345370042-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>345370042</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Brand new hotel. Room was spacious, comfortable beds and clean. Located close to Houston, lots of outlet stores, restaurants and I-10.. Staff was wonderful very friendly and helpful. Brian and Bridgette really stood out they really went out of there way to make my stay pleasant. Highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r335132120-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>335132120</t>
+  </si>
+  <si>
+    <t>12/26/2015</t>
+  </si>
+  <si>
+    <t>I have stayed at many Marriott Hotels but this one is special. Part of it is how new it is (3 months) and it really shows. Everything is new including all of the facilities . The outdoor patio has a great swimming pool, hot tub and lounge area. The gas fireplace makes a romantic evening even better. The service was great and we hope to visit here again!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r334496594-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
   </si>
   <si>
@@ -766,9 +1194,6 @@
   </si>
   <si>
     <t>Very nice property conveniently located near Katy Mills Outlet Mall and I-10. Rooms are very niice with great work station. Fast internet. Beautiful pool but not heated. Hot tub was good. Nice outdoor fireplace and seating area</t>
-  </si>
-  <si>
-    <t>December 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r334030331-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -806,6 +1231,39 @@
     <t>Haven't stayed at a Courtyard in probably 10 years so didn't know what to expect. This one is only a few months old and the new design is modern and inviting. My room is very comfortable with tons of USB and electric outlets to charge multiple devices. Initial scan of the tv choices showed Netflix and Crackle, which I did not expect. The bathrooms feature Paul Mitchell products, which is always nice. While a highway and a mall are not that far away, my room was super quiet. During check in, Brian helped me very quickly and with a smile. The person who helped me last night when I grabbed a snack from their little market was also very sweet - popped the top off my beer as well. Breakfast this morning was tasty and served with a smile in a comfy area that included little TVs to scan while eating. Bottom line - should I have to come to the Katy area again, I would not hesitate to book here. 
 The outside pool and lounge area looked quite nice but not really usable in the temps this time of year. The gym was fine for Cardio but needs more weight equipment, mats to do abs on, and a water machine that works. 
 Two other slightly negative things - the new elevators have a buzzing noise they make when they hit your floor that is a bit jarring. Could tone...Haven't stayed at a Courtyard in probably 10 years so didn't know what to expect. This one is only a few months old and the new design is modern and inviting. My room is very comfortable with tons of USB and electric outlets to charge multiple devices. Initial scan of the tv choices showed Netflix and Crackle, which I did not expect. The bathrooms feature Paul Mitchell products, which is always nice. While a highway and a mall are not that far away, my room was super quiet. During check in, Brian helped me very quickly and with a smile. The person who helped me last night when I grabbed a snack from their little market was also very sweet - popped the top off my beer as well. Breakfast this morning was tasty and served with a smile in a comfy area that included little TVs to scan while eating. Bottom line - should I have to come to the Katy area again, I would not hesitate to book here. The outside pool and lounge area looked quite nice but not really usable in the temps this time of year. The gym was fine for Cardio but needs more weight equipment, mats to do abs on, and a water machine that works. Two other slightly negative things - the new elevators have a buzzing noise they make when they hit your floor that is a bit jarring. Could tone that down a bit. Also, no matter what room you get, you will either have a stirring view of a highway or an inviting outlet mall so if you want a spectacular view, this is not the place for you. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r332082937-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>332082937</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Perfect Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is new, the rooms are perfect, size, cleanliness. The staff is very friendly, plenty parking and very close to Katy Mills mall. WiFi in room, signal is perfect, Starbucks coffee inside the hotel.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r331884353-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
+  </si>
+  <si>
+    <t>331884353</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Best option in the area!</t>
+  </si>
+  <si>
+    <t>Stayed here during a family wedding back in November.  It's a brand new property that is modern, clean and very nice inside.  The service was excellent and the amenities were spot on.  I'd certainly stay here again if in the area.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56062-d8796649-r329605457-Courtyard_Houston_Katy_Mills-Katy_Texas.html</t>
@@ -824,9 +1282,6 @@
 I and many other guests had to return to the front desk at least once daily to have my room keys re-made due to system problems.  With a line of people all having this problem, the front desk agents blamed the guests for placing the keys too close to our mobile phones when clearly this was some sort of system problem.
 As a Marriott Rewards Platinum Elite Member, I requested a room upgrade.  There were three cars in the parking lot during most of my 4 night stay so there was plenty of availability.  Two different staff members told me that only a manager was empowered to approve a room upgrade, and none was available the three times that I asked.  The night clerk Daniel promised to pass along my request to the manager in the morning, but I was never contacted.  This is not what I have come to expect from Marriott, which generally prides itself on empowering its team members to ensure guest satisfaction.
 Housekeeping slid a note under our room door before 9am each day, stating that they were unable to service the room because of the Do Not Disturb sign, despite the fact that their team was working on our floor...This brand new Courtyard looks fantastic and has a great pool area.  However, its allure is outweighed by its shortcomings and I won't be back anytime soon.  This was a very frustrating stay for me.I and many other guests had to return to the front desk at least once daily to have my room keys re-made due to system problems.  With a line of people all having this problem, the front desk agents blamed the guests for placing the keys too close to our mobile phones when clearly this was some sort of system problem.As a Marriott Rewards Platinum Elite Member, I requested a room upgrade.  There were three cars in the parking lot during most of my 4 night stay so there was plenty of availability.  Two different staff members told me that only a manager was empowered to approve a room upgrade, and none was available the three times that I asked.  The night clerk Daniel promised to pass along my request to the manager in the morning, but I was never contacted.  This is not what I have come to expect from Marriott, which generally prides itself on empowering its team members to ensure guest satisfaction.Housekeeping slid a note under our room door before 9am each day, stating that they were unable to service the room because of the Do Not Disturb sign, despite the fact that their team was working on our floor until mid-afternoon each day.One of the things I enjoy about the Courtyard brand is that most properties have a whirlpool spa. Although the pool and spa generally "soft-close" at 10pm, as long as you're quiet you can generally use the whirlpool spa later in the evening at most properties.  This property has the spa turned off after 10pm so I was not able to use it when I needed back relief at midnight.Finally, the internet.  With just a few cars in the parking lot, one might expect to get great internet speeds.  Not so.  The internet crawled for most of our visit, despite having purchased the premium internet package.There was nothing at all wrong with the hotel property itself.  The place is in great shape, the room was clean and well designed, everything worked well (except the internet speed) and it was quiet.  So while this property could be great, the total lack of attention to guest satisfaction really turned my stay around from relaxing to frustrating.MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2015</t>
   </si>
   <si>
     <t>This brand new Courtyard looks fantastic and has a great pool area.  However, its allure is outweighed by its shortcomings and I won't be back anytime soon.  This was a very frustrating stay for me.
@@ -1420,10 +1875,14 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1467,33 +1926,31 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1509,7 +1966,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1518,43 +1975,35 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1570,7 +2019,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1579,45 +2028,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
@@ -1633,7 +2076,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1642,47 +2085,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
         <v>75</v>
       </c>
-      <c r="L6" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="s"/>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
-        <v>79</v>
-      </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>80</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1722,17 +2163,21 @@
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
         <v>87</v>
       </c>
-      <c r="P7" t="s"/>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
@@ -1779,16 +2224,16 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>87</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -1800,7 +2245,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
@@ -1816,46 +2261,44 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>98</v>
       </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
       <c r="O9" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1863,7 +2306,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1879,46 +2322,46 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>102</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>103</v>
       </c>
-      <c r="K10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L10" t="s">
-        <v>105</v>
-      </c>
       <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="n">
         <v>4</v>
       </c>
-      <c r="N10" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
         <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1926,7 +2369,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1942,54 +2385,56 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>111</v>
-      </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12">
@@ -2005,7 +2450,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2014,43 +2459,39 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2066,52 +2507,48 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>119</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>120</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>121</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>122</v>
       </c>
-      <c r="L13" t="s">
-        <v>123</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -2127,54 +2564,48 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
         <v>125</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>126</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>127</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>128</v>
       </c>
-      <c r="L14" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>130</v>
-      </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15">
@@ -2190,46 +2621,44 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
         <v>131</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>132</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>133</v>
       </c>
-      <c r="K15" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" t="s">
-        <v>135</v>
-      </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O15" t="s">
         <v>87</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
         <v>5</v>
       </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2237,7 +2666,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -2253,48 +2682,54 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
         <v>137</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>139</v>
       </c>
-      <c r="K16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>140</v>
       </c>
-      <c r="L16" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>130</v>
-      </c>
       <c r="O16" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -2310,46 +2745,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>142</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>143</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>144</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>145</v>
       </c>
-      <c r="L17" t="s">
-        <v>146</v>
-      </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="n">
         <v>5</v>
       </c>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2357,7 +2792,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2373,54 +2808,48 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>150</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>154</v>
-      </c>
       <c r="O18" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
@@ -2436,46 +2865,46 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s">
         <v>155</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>156</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>157</v>
       </c>
-      <c r="K19" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" t="s">
-        <v>159</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>160</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19" t="s"/>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2483,7 +2912,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -2499,31 +2928,31 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>162</v>
       </c>
-      <c r="J20" t="s">
-        <v>163</v>
-      </c>
-      <c r="K20" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" t="s">
-        <v>165</v>
-      </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O20" t="s">
         <v>87</v>
@@ -2533,7 +2962,9 @@
         <v>5</v>
       </c>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>5</v>
@@ -2544,7 +2975,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -2560,48 +2991,52 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
         <v>166</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>167</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
         <v>168</v>
-      </c>
-      <c r="K21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>160</v>
-      </c>
-      <c r="O21" t="s">
-        <v>87</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
@@ -2617,41 +3052,41 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>171</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>172</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>173</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>174</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>175</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>160</v>
-      </c>
       <c r="O22" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>5</v>
@@ -2662,7 +3097,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
@@ -2678,35 +3113,31 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
         <v>177</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>178</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>179</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>180</v>
       </c>
-      <c r="L23" t="s">
-        <v>181</v>
-      </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>182</v>
-      </c>
-      <c r="O23" t="s">
-        <v>78</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -2719,7 +3150,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
@@ -2735,43 +3166,41 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s">
         <v>184</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>185</v>
-      </c>
-      <c r="J24" t="s">
-        <v>186</v>
-      </c>
-      <c r="K24" t="s">
-        <v>187</v>
-      </c>
-      <c r="L24" t="s">
-        <v>188</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
         <v>5</v>
@@ -2782,7 +3211,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
@@ -2798,48 +3227,54 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
         <v>190</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>191</v>
       </c>
-      <c r="J25" t="s">
-        <v>192</v>
-      </c>
-      <c r="K25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L25" t="s">
-        <v>193</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>182</v>
-      </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
@@ -2855,44 +3290,46 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
         <v>194</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>195</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>196</v>
       </c>
-      <c r="K26" t="s">
-        <v>197</v>
-      </c>
-      <c r="L26" t="s">
-        <v>198</v>
-      </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2900,7 +3337,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
@@ -2916,54 +3353,48 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
         <v>201</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>202</v>
       </c>
-      <c r="J27" t="s">
-        <v>203</v>
-      </c>
-      <c r="K27" t="s">
-        <v>204</v>
-      </c>
-      <c r="L27" t="s">
-        <v>205</v>
-      </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
@@ -2979,54 +3410,48 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" t="s">
         <v>206</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
         <v>207</v>
       </c>
-      <c r="J28" t="s">
-        <v>208</v>
-      </c>
-      <c r="K28" t="s">
-        <v>209</v>
-      </c>
-      <c r="L28" t="s">
-        <v>210</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>199</v>
-      </c>
       <c r="O28" t="s">
-        <v>65</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
@@ -3042,43 +3467,41 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
         <v>211</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>212</v>
       </c>
-      <c r="J29" t="s">
-        <v>213</v>
-      </c>
-      <c r="K29" t="s">
-        <v>214</v>
-      </c>
-      <c r="L29" t="s">
-        <v>215</v>
-      </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
         <v>5</v>
       </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>5</v>
@@ -3089,7 +3512,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
@@ -3105,41 +3528,43 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>213</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>214</v>
+      </c>
+      <c r="J30" t="s">
+        <v>215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>216</v>
+      </c>
+      <c r="L30" t="s">
+        <v>217</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>218</v>
-      </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
-        <v>219</v>
-      </c>
-      <c r="J30" t="s">
-        <v>220</v>
-      </c>
-      <c r="K30" t="s">
-        <v>221</v>
-      </c>
-      <c r="L30" t="s">
-        <v>222</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s">
-        <v>216</v>
       </c>
       <c r="O30" t="s">
         <v>87</v>
       </c>
-      <c r="P30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3150,7 +3575,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
@@ -3166,48 +3591,54 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
         <v>223</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>224</v>
       </c>
-      <c r="J31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>225</v>
       </c>
-      <c r="K31" t="s">
-        <v>226</v>
-      </c>
-      <c r="L31" t="s">
-        <v>227</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>216</v>
-      </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32">
@@ -3223,44 +3654,46 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>227</v>
+      </c>
+      <c r="J32" t="s">
         <v>228</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>229</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>230</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
         <v>231</v>
       </c>
-      <c r="L32" t="s">
-        <v>232</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>233</v>
-      </c>
       <c r="O32" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3268,7 +3701,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
@@ -3284,48 +3717,52 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>232</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>233</v>
+      </c>
+      <c r="J33" t="s">
         <v>234</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>235</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>236</v>
       </c>
-      <c r="K33" t="s">
-        <v>237</v>
-      </c>
-      <c r="L33" t="s">
-        <v>238</v>
-      </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s">
         <v>87</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -3341,48 +3778,52 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>238</v>
+      </c>
+      <c r="J34" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" t="s">
         <v>240</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="L34" t="s">
         <v>241</v>
       </c>
-      <c r="J34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K34" t="s">
-        <v>243</v>
-      </c>
-      <c r="L34" t="s">
-        <v>244</v>
-      </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35">
@@ -3398,40 +3839,40 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>242</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>243</v>
+      </c>
+      <c r="J35" t="s">
+        <v>244</v>
+      </c>
+      <c r="K35" t="s">
         <v>245</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L35" t="s">
         <v>246</v>
       </c>
-      <c r="J35" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" t="s">
-        <v>249</v>
-      </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="O35" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3443,7 +3884,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36">
@@ -3459,52 +3900,48 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K36" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" t="s">
         <v>251</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J36" t="s">
-        <v>253</v>
-      </c>
-      <c r="K36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L36" t="s">
-        <v>255</v>
-      </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
@@ -3520,48 +3957,52 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>253</v>
+      </c>
+      <c r="J37" t="s">
+        <v>254</v>
+      </c>
+      <c r="K37" t="s">
+        <v>255</v>
+      </c>
+      <c r="L37" t="s">
         <v>256</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
-        <v>257</v>
-      </c>
-      <c r="J37" t="s">
-        <v>258</v>
-      </c>
-      <c r="K37" t="s">
-        <v>259</v>
-      </c>
-      <c r="L37" t="s">
-        <v>260</v>
-      </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
-      <c r="U37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38">
@@ -3577,52 +4018,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>258</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>259</v>
+      </c>
+      <c r="J38" t="s">
+        <v>260</v>
+      </c>
+      <c r="K38" t="s">
+        <v>261</v>
+      </c>
+      <c r="L38" t="s">
         <v>262</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>263</v>
       </c>
-      <c r="J38" t="s">
-        <v>264</v>
-      </c>
-      <c r="K38" t="s">
-        <v>265</v>
-      </c>
-      <c r="L38" t="s">
-        <v>266</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s">
-        <v>267</v>
-      </c>
       <c r="O38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="P38" t="s"/>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>2</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39">
@@ -3638,48 +4075,56 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>265</v>
+      </c>
+      <c r="J39" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s">
+        <v>268</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>269</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
-        <v>270</v>
-      </c>
-      <c r="J39" t="s">
-        <v>271</v>
-      </c>
-      <c r="K39" t="s">
-        <v>272</v>
-      </c>
-      <c r="L39" t="s">
-        <v>273</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>267</v>
-      </c>
       <c r="O39" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>270</v>
+      </c>
+      <c r="X39" t="s">
+        <v>271</v>
+      </c>
       <c r="Y39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40">
@@ -3695,45 +4140,41 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J40" t="s">
         <v>275</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>276</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>277</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>278</v>
       </c>
-      <c r="L40" t="s">
-        <v>279</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>267</v>
-      </c>
       <c r="O40" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
@@ -3743,6 +4184,1631 @@
         <v>279</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" t="s">
+        <v>284</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>278</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>286</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J42" t="s">
+        <v>288</v>
+      </c>
+      <c r="K42" t="s">
+        <v>144</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>278</v>
+      </c>
+      <c r="O42" t="s">
+        <v>87</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>291</v>
+      </c>
+      <c r="J43" t="s">
+        <v>292</v>
+      </c>
+      <c r="K43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L43" t="s">
+        <v>294</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>269</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
+        <v>299</v>
+      </c>
+      <c r="L44" t="s">
+        <v>300</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>278</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>301</v>
+      </c>
+      <c r="X44" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J45" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" t="s">
+        <v>307</v>
+      </c>
+      <c r="L45" t="s">
+        <v>308</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>309</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>312</v>
+      </c>
+      <c r="J46" t="s">
+        <v>313</v>
+      </c>
+      <c r="K46" t="s">
+        <v>314</v>
+      </c>
+      <c r="L46" t="s">
+        <v>315</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>309</v>
+      </c>
+      <c r="O46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>316</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>317</v>
+      </c>
+      <c r="J47" t="s">
+        <v>318</v>
+      </c>
+      <c r="K47" t="s">
+        <v>319</v>
+      </c>
+      <c r="L47" t="s">
+        <v>320</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" t="s">
+        <v>87</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>321</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>322</v>
+      </c>
+      <c r="J48" t="s">
+        <v>323</v>
+      </c>
+      <c r="K48" t="s">
+        <v>324</v>
+      </c>
+      <c r="L48" t="s">
+        <v>325</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>309</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>327</v>
+      </c>
+      <c r="J49" t="s">
+        <v>328</v>
+      </c>
+      <c r="K49" t="s">
+        <v>329</v>
+      </c>
+      <c r="L49" t="s">
+        <v>330</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>309</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>333</v>
+      </c>
+      <c r="J50" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" t="s">
+        <v>335</v>
+      </c>
+      <c r="L50" t="s">
+        <v>336</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>337</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>339</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>340</v>
+      </c>
+      <c r="J51" t="s">
+        <v>341</v>
+      </c>
+      <c r="K51" t="s">
+        <v>342</v>
+      </c>
+      <c r="L51" t="s">
+        <v>343</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>337</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>344</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>345</v>
+      </c>
+      <c r="J52" t="s">
+        <v>346</v>
+      </c>
+      <c r="K52" t="s">
+        <v>347</v>
+      </c>
+      <c r="L52" t="s">
+        <v>348</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>337</v>
+      </c>
+      <c r="O52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>349</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>350</v>
+      </c>
+      <c r="J53" t="s">
+        <v>351</v>
+      </c>
+      <c r="K53" t="s">
+        <v>352</v>
+      </c>
+      <c r="L53" t="s">
+        <v>353</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>337</v>
+      </c>
+      <c r="O53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>354</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>355</v>
+      </c>
+      <c r="J54" t="s">
+        <v>356</v>
+      </c>
+      <c r="K54" t="s">
+        <v>357</v>
+      </c>
+      <c r="L54" t="s">
+        <v>358</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>337</v>
+      </c>
+      <c r="O54" t="s">
+        <v>87</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>359</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>360</v>
+      </c>
+      <c r="J55" t="s">
+        <v>361</v>
+      </c>
+      <c r="K55" t="s">
+        <v>362</v>
+      </c>
+      <c r="L55" t="s">
+        <v>363</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>364</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>365</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>366</v>
+      </c>
+      <c r="J56" t="s">
+        <v>367</v>
+      </c>
+      <c r="K56" t="s">
+        <v>368</v>
+      </c>
+      <c r="L56" t="s">
+        <v>369</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>370</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>371</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>372</v>
+      </c>
+      <c r="J57" t="s">
+        <v>373</v>
+      </c>
+      <c r="K57" t="s">
+        <v>374</v>
+      </c>
+      <c r="L57" t="s">
+        <v>375</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>370</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>376</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>377</v>
+      </c>
+      <c r="J58" t="s">
+        <v>378</v>
+      </c>
+      <c r="K58" t="s">
+        <v>379</v>
+      </c>
+      <c r="L58" t="s">
+        <v>380</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>381</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>382</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>383</v>
+      </c>
+      <c r="J59" t="s">
+        <v>384</v>
+      </c>
+      <c r="K59" t="s">
+        <v>144</v>
+      </c>
+      <c r="L59" t="s">
+        <v>385</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>386</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>387</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>388</v>
+      </c>
+      <c r="J60" t="s">
+        <v>389</v>
+      </c>
+      <c r="K60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L60" t="s">
+        <v>391</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>386</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>392</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>393</v>
+      </c>
+      <c r="J61" t="s">
+        <v>394</v>
+      </c>
+      <c r="K61" t="s">
+        <v>395</v>
+      </c>
+      <c r="L61" t="s">
+        <v>396</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>386</v>
+      </c>
+      <c r="O61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L62" t="s">
+        <v>401</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>386</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>403</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>404</v>
+      </c>
+      <c r="J63" t="s">
+        <v>405</v>
+      </c>
+      <c r="K63" t="s">
+        <v>406</v>
+      </c>
+      <c r="L63" t="s">
+        <v>407</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>408</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>409</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>410</v>
+      </c>
+      <c r="J64" t="s">
+        <v>411</v>
+      </c>
+      <c r="K64" t="s">
+        <v>412</v>
+      </c>
+      <c r="L64" t="s">
+        <v>413</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>408</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>414</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>415</v>
+      </c>
+      <c r="J65" t="s">
+        <v>416</v>
+      </c>
+      <c r="K65" t="s">
+        <v>417</v>
+      </c>
+      <c r="L65" t="s">
+        <v>418</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>408</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>2</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>420</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>421</v>
+      </c>
+      <c r="J66" t="s">
+        <v>422</v>
+      </c>
+      <c r="K66" t="s">
+        <v>423</v>
+      </c>
+      <c r="L66" t="s">
+        <v>424</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>408</v>
+      </c>
+      <c r="O66" t="s">
+        <v>87</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63739</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>426</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>427</v>
+      </c>
+      <c r="J67" t="s">
+        <v>428</v>
+      </c>
+      <c r="K67" t="s">
+        <v>429</v>
+      </c>
+      <c r="L67" t="s">
+        <v>430</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>408</v>
+      </c>
+      <c r="O67" t="s">
+        <v>87</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>